--- a/baxter.metadata.xlsx
+++ b/baxter.metadata.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pschloss/Documents/websites/riffomonas/baxter_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{08EA9AA3-BA90-D24A-9273-E8033460DA32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1880" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baxter.metadata.tsv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="32">
   <si>
     <t>sample</t>
   </si>
@@ -113,11 +119,14 @@
   <si>
     <t>MD Anderson</t>
   </si>
+  <si>
+    <t>U of Michigan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -179,6 +188,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -503,16 +520,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2003650</v>
       </c>
@@ -615,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2005650</v>
       </c>
@@ -668,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2007660</v>
       </c>
@@ -721,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2009650</v>
       </c>
@@ -774,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2013660</v>
       </c>
@@ -827,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015650</v>
       </c>
@@ -880,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2017660</v>
       </c>
@@ -933,7 +950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2019651</v>
       </c>
@@ -986,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2023680</v>
       </c>
@@ -1039,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2025653</v>
       </c>
@@ -1092,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2027653</v>
       </c>
@@ -1145,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2029650</v>
       </c>
@@ -1198,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2031650</v>
       </c>
@@ -1251,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2033650</v>
       </c>
@@ -1304,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2035650</v>
       </c>
@@ -1357,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2037653</v>
       </c>
@@ -1410,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2039650</v>
       </c>
@@ -1463,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2041650</v>
       </c>
@@ -1516,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2043650</v>
       </c>
@@ -1569,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2045653</v>
       </c>
@@ -1622,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2049653</v>
       </c>
@@ -1675,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2051660</v>
       </c>
@@ -1728,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2055690</v>
       </c>
@@ -1781,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2057650</v>
       </c>
@@ -1789,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1834,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2059653</v>
       </c>
@@ -1884,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2061650</v>
       </c>
@@ -1937,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2063650</v>
       </c>
@@ -1990,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2065651</v>
       </c>
@@ -2043,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2067650</v>
       </c>
@@ -2096,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2071650</v>
       </c>
@@ -2149,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2073650</v>
       </c>
@@ -2202,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2075650</v>
       </c>
@@ -2255,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2077653</v>
       </c>
@@ -2308,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2081660</v>
       </c>
@@ -2361,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2083650</v>
       </c>
@@ -2414,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2085653</v>
       </c>
@@ -2467,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2087650</v>
       </c>
@@ -2520,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2093650</v>
       </c>
@@ -2573,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2097653</v>
       </c>
@@ -2626,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2103650</v>
       </c>
@@ -2679,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2105652</v>
       </c>
@@ -2732,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2107650</v>
       </c>
@@ -2785,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2109653</v>
       </c>
@@ -2838,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2113670</v>
       </c>
@@ -2891,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2115650</v>
       </c>
@@ -2944,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2117651</v>
       </c>
@@ -2997,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2119650</v>
       </c>
@@ -3050,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2123652</v>
       </c>
@@ -3103,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2125650</v>
       </c>
@@ -3156,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2127650</v>
       </c>
@@ -3209,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2129660</v>
       </c>
@@ -3262,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2131650</v>
       </c>
@@ -3315,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2133650</v>
       </c>
@@ -3368,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2137650</v>
       </c>
@@ -3421,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2139650</v>
       </c>
@@ -3474,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2143653</v>
       </c>
@@ -3527,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2145660</v>
       </c>
@@ -3580,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2147680</v>
       </c>
@@ -3633,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2149650</v>
       </c>
@@ -3686,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2151650</v>
       </c>
@@ -3739,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2153660</v>
       </c>
@@ -3792,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2155650</v>
       </c>
@@ -3845,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2157660</v>
       </c>
@@ -3898,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2159650</v>
       </c>
@@ -3948,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2161653</v>
       </c>
@@ -4001,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2163653</v>
       </c>
@@ -4054,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2165652</v>
       </c>
@@ -4107,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2167670</v>
       </c>
@@ -4160,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2169653</v>
       </c>
@@ -4213,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2171690</v>
       </c>
@@ -4266,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2173650</v>
       </c>
@@ -4319,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2177653</v>
       </c>
@@ -4372,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2179650</v>
       </c>
@@ -4425,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2181650</v>
       </c>
@@ -4478,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2183650</v>
       </c>
@@ -4531,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2185670</v>
       </c>
@@ -4584,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2187680</v>
       </c>
@@ -4637,7 +4654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2189650</v>
       </c>
@@ -4690,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2193650</v>
       </c>
@@ -4743,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2195651</v>
       </c>
@@ -4796,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2197670</v>
       </c>
@@ -4849,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2199650</v>
       </c>
@@ -4902,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2201650</v>
       </c>
@@ -4955,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2203653</v>
       </c>
@@ -5008,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2205670</v>
       </c>
@@ -5061,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2207653</v>
       </c>
@@ -5114,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2215650</v>
       </c>
@@ -5167,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2219650</v>
       </c>
@@ -5220,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2221650</v>
       </c>
@@ -5273,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2223650</v>
       </c>
@@ -5326,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2225650</v>
       </c>
@@ -5379,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2227660</v>
       </c>
@@ -5432,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2229653</v>
       </c>
@@ -5485,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2231653</v>
       </c>
@@ -5538,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2239650</v>
       </c>
@@ -5591,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2241650</v>
       </c>
@@ -5644,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2243651</v>
       </c>
@@ -5697,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2253660</v>
       </c>
@@ -5750,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2255653</v>
       </c>
@@ -5803,7 +5820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2257660</v>
       </c>
@@ -5856,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2261650</v>
       </c>
@@ -5909,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2265651</v>
       </c>
@@ -5962,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2267653</v>
       </c>
@@ -6015,7 +6032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2271650</v>
       </c>
@@ -6068,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2277650</v>
       </c>
@@ -6121,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2279650</v>
       </c>
@@ -6174,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2281651</v>
       </c>
@@ -6227,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2283670</v>
       </c>
@@ -6280,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2285653</v>
       </c>
@@ -6333,7 +6350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2287660</v>
       </c>
@@ -6386,7 +6403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2289650</v>
       </c>
@@ -6439,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2291653</v>
       </c>
@@ -6492,7 +6509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2293650</v>
       </c>
@@ -6545,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2295650</v>
       </c>
@@ -6598,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2297650</v>
       </c>
@@ -6651,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2301650</v>
       </c>
@@ -6704,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2305651</v>
       </c>
@@ -6757,7 +6774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2307650</v>
       </c>
@@ -6810,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2309650</v>
       </c>
@@ -6863,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2313680</v>
       </c>
@@ -6916,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2315650</v>
       </c>
@@ -6969,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2321650</v>
       </c>
@@ -7022,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2325660</v>
       </c>
@@ -7075,7 +7092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2327650</v>
       </c>
@@ -7128,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2329650</v>
       </c>
@@ -7181,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2335650</v>
       </c>
@@ -7234,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2337650</v>
       </c>
@@ -7287,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2339651</v>
       </c>
@@ -7340,7 +7357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2341650</v>
       </c>
@@ -7393,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2343650</v>
       </c>
@@ -7446,7 +7463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2349653</v>
       </c>
@@ -7499,7 +7516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2353670</v>
       </c>
@@ -7552,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2355653</v>
       </c>
@@ -7605,7 +7622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2359650</v>
       </c>
@@ -7658,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2365651</v>
       </c>
@@ -7711,7 +7728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2367650</v>
       </c>
@@ -7761,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2373690</v>
       </c>
@@ -7814,7 +7831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2375650</v>
       </c>
@@ -7867,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2379653</v>
       </c>
@@ -7920,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2389650</v>
       </c>
@@ -7973,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2393650</v>
       </c>
@@ -8026,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2395670</v>
       </c>
@@ -8079,7 +8096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2399670</v>
       </c>
@@ -8132,7 +8149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2405680</v>
       </c>
@@ -8185,7 +8202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2409670</v>
       </c>
@@ -8238,7 +8255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2411660</v>
       </c>
@@ -8291,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2413660</v>
       </c>
@@ -8344,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2419660</v>
       </c>
@@ -8397,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2421651</v>
       </c>
@@ -8450,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2427660</v>
       </c>
@@ -8503,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2431660</v>
       </c>
@@ -8556,7 +8573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2433650</v>
       </c>
@@ -8609,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2435680</v>
       </c>
@@ -8662,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2437680</v>
       </c>
@@ -8715,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2447651</v>
       </c>
@@ -8768,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2449650</v>
       </c>
@@ -8821,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2453653</v>
       </c>
@@ -8874,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2455650</v>
       </c>
@@ -8927,7 +8944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2457670</v>
       </c>
@@ -8980,7 +8997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2461651</v>
       </c>
@@ -9033,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2463651</v>
       </c>
@@ -9086,7 +9103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2465680</v>
       </c>
@@ -9139,7 +9156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2471651</v>
       </c>
@@ -9192,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2473660</v>
       </c>
@@ -9245,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2475653</v>
       </c>
@@ -9298,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2487651</v>
       </c>
@@ -9351,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2491670</v>
       </c>
@@ -9404,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2493651</v>
       </c>
@@ -9457,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2495653</v>
       </c>
@@ -9510,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2499660</v>
       </c>
@@ -9563,7 +9580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2503650</v>
       </c>
@@ -9616,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2505651</v>
       </c>
@@ -9669,7 +9686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2507651</v>
       </c>
@@ -9722,7 +9739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2511650</v>
       </c>
@@ -9775,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2513680</v>
       </c>
@@ -9828,7 +9845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2517650</v>
       </c>
@@ -9881,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2519650</v>
       </c>
@@ -9934,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2523653</v>
       </c>
@@ -9987,7 +10004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2525651</v>
       </c>
@@ -10040,7 +10057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2527670</v>
       </c>
@@ -10093,7 +10110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2529680</v>
       </c>
@@ -10146,7 +10163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2531651</v>
       </c>
@@ -10199,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2535652</v>
       </c>
@@ -10252,7 +10269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2537670</v>
       </c>
@@ -10305,7 +10322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2539660</v>
       </c>
@@ -10358,7 +10375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2541670</v>
       </c>
@@ -10411,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2543653</v>
       </c>
@@ -10464,7 +10481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2545651</v>
       </c>
@@ -10517,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2547670</v>
       </c>
@@ -10570,7 +10587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2551650</v>
       </c>
@@ -10623,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2555653</v>
       </c>
@@ -10676,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2559650</v>
       </c>
@@ -10729,7 +10746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2565650</v>
       </c>
@@ -10782,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2567653</v>
       </c>
@@ -10835,7 +10852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2571650</v>
       </c>
@@ -10888,7 +10905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2575653</v>
       </c>
@@ -10941,7 +10958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2579680</v>
       </c>
@@ -10994,7 +11011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2581651</v>
       </c>
@@ -11047,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2583650</v>
       </c>
@@ -11100,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2587650</v>
       </c>
@@ -11153,7 +11170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2589650</v>
       </c>
@@ -11206,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2597670</v>
       </c>
@@ -11259,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2599650</v>
       </c>
@@ -11312,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2603650</v>
       </c>
@@ -11365,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2611670</v>
       </c>
@@ -11409,7 +11426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2613650</v>
       </c>
@@ -11462,7 +11479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2617653</v>
       </c>
@@ -11515,7 +11532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2619653</v>
       </c>
@@ -11568,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2625653</v>
       </c>
@@ -11621,7 +11638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2629651</v>
       </c>
@@ -11674,7 +11691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2633670</v>
       </c>
@@ -11727,7 +11744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2637651</v>
       </c>
@@ -11780,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2639690</v>
       </c>
@@ -11833,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2641650</v>
       </c>
@@ -11886,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2643651</v>
       </c>
@@ -11939,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2647650</v>
       </c>
@@ -11992,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2657651</v>
       </c>
@@ -12045,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2665650</v>
       </c>
@@ -12098,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2667653</v>
       </c>
@@ -12151,7 +12168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2669660</v>
       </c>
@@ -12204,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2671660</v>
       </c>
@@ -12257,7 +12274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2675680</v>
       </c>
@@ -12310,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2677650</v>
       </c>
@@ -12363,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2679660</v>
       </c>
@@ -12416,7 +12433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2681650</v>
       </c>
@@ -12469,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2695652</v>
       </c>
@@ -12522,7 +12539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2703653</v>
       </c>
@@ -12575,7 +12592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2705653</v>
       </c>
@@ -12628,7 +12645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2709650</v>
       </c>
@@ -12681,7 +12698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2713651</v>
       </c>
@@ -12734,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2717652</v>
       </c>
@@ -12784,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2719650</v>
       </c>
@@ -12837,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2725650</v>
       </c>
@@ -12884,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2727653</v>
       </c>
@@ -12937,7 +12954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2731670</v>
       </c>
@@ -12990,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2733650</v>
       </c>
@@ -13043,7 +13060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2739651</v>
       </c>
@@ -13096,7 +13113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2743650</v>
       </c>
@@ -13149,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2751650</v>
       </c>
@@ -13202,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2757652</v>
       </c>
@@ -13255,7 +13272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2767650</v>
       </c>
@@ -13308,7 +13325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2769660</v>
       </c>
@@ -13361,7 +13378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2771670</v>
       </c>
@@ -13414,7 +13431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2773651</v>
       </c>
@@ -13467,7 +13484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2775653</v>
       </c>
@@ -13520,7 +13537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2777670</v>
       </c>
@@ -13573,7 +13590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2779670</v>
       </c>
@@ -13626,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2785650</v>
       </c>
@@ -13679,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2787660</v>
       </c>
@@ -13732,7 +13749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2795690</v>
       </c>
@@ -13785,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2799653</v>
       </c>
@@ -13838,7 +13855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2801653</v>
       </c>
@@ -13891,7 +13908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2803670</v>
       </c>
@@ -13944,7 +13961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2805660</v>
       </c>
@@ -13997,7 +14014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2807650</v>
       </c>
@@ -14050,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2811650</v>
       </c>
@@ -14103,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2815650</v>
       </c>
@@ -14156,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2817670</v>
       </c>
@@ -14209,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2823650</v>
       </c>
@@ -14262,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2827650</v>
       </c>
@@ -14315,7 +14332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2829660</v>
       </c>
@@ -14368,7 +14385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2831680</v>
       </c>
@@ -14421,7 +14438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2835650</v>
       </c>
@@ -14474,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2837680</v>
       </c>
@@ -14527,7 +14544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2841680</v>
       </c>
@@ -14577,7 +14594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2843670</v>
       </c>
@@ -14630,7 +14647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2849650</v>
       </c>
@@ -14683,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2853660</v>
       </c>
@@ -14736,7 +14753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2855690</v>
       </c>
@@ -14786,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2857650</v>
       </c>
@@ -14839,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2859650</v>
       </c>
@@ -14892,7 +14909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2861650</v>
       </c>
@@ -14945,7 +14962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2863680</v>
       </c>
@@ -14998,7 +15015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2871650</v>
       </c>
@@ -15051,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2873653</v>
       </c>
@@ -15104,7 +15121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2879660</v>
       </c>
@@ -15157,7 +15174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2883650</v>
       </c>
@@ -15210,7 +15227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2887670</v>
       </c>
@@ -15263,7 +15280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2889660</v>
       </c>
@@ -15316,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2893660</v>
       </c>
@@ -15369,7 +15386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2895650</v>
       </c>
@@ -15422,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2901651</v>
       </c>
@@ -15475,7 +15492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2903653</v>
       </c>
@@ -15528,7 +15545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2905650</v>
       </c>
@@ -15581,7 +15598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2907653</v>
       </c>
@@ -15634,7 +15651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2909653</v>
       </c>
@@ -15687,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2911680</v>
       </c>
@@ -15740,7 +15757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2913650</v>
       </c>
@@ -15793,7 +15810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2915650</v>
       </c>
@@ -15846,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2917650</v>
       </c>
@@ -15899,7 +15916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2921652</v>
       </c>
@@ -15952,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2923650</v>
       </c>
@@ -16005,7 +16022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2929650</v>
       </c>
@@ -16058,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2931650</v>
       </c>
@@ -16111,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2933652</v>
       </c>
@@ -16164,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2935650</v>
       </c>
@@ -16217,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2937653</v>
       </c>
@@ -16270,7 +16287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2939650</v>
       </c>
@@ -16323,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2943650</v>
       </c>
@@ -16376,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2945660</v>
       </c>
@@ -16429,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2955670</v>
       </c>
@@ -16482,7 +16499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2957680</v>
       </c>
@@ -16535,7 +16552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2959660</v>
       </c>
@@ -16588,7 +16605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2961650</v>
       </c>
@@ -16641,7 +16658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2963670</v>
       </c>
@@ -16694,7 +16711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2965650</v>
       </c>
@@ -16747,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2967680</v>
       </c>
@@ -16800,7 +16817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2969650</v>
       </c>
@@ -16853,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2971660</v>
       </c>
@@ -16906,7 +16923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2981651</v>
       </c>
@@ -16959,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2987670</v>
       </c>
@@ -17012,7 +17029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2991650</v>
       </c>
@@ -17065,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2993690</v>
       </c>
@@ -17118,7 +17135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2995660</v>
       </c>
@@ -17171,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2997651</v>
       </c>
@@ -17224,7 +17241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2999650</v>
       </c>
@@ -17277,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>3001670</v>
       </c>
@@ -17330,7 +17347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>3005653</v>
       </c>
@@ -17383,7 +17400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>3009670</v>
       </c>
@@ -17436,7 +17453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>3011651</v>
       </c>
@@ -17489,7 +17506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>3013653</v>
       </c>
@@ -17542,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>3015650</v>
       </c>
@@ -17595,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>3021690</v>
       </c>
@@ -17648,7 +17665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>3023652</v>
       </c>
@@ -17701,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3025650</v>
       </c>
@@ -17754,7 +17771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>3031650</v>
       </c>
@@ -17807,7 +17824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>3033660</v>
       </c>
@@ -17860,7 +17877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>3043652</v>
       </c>
@@ -17913,7 +17930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>3047652</v>
       </c>
@@ -17966,7 +17983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>3049660</v>
       </c>
@@ -18019,7 +18036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>3051650</v>
       </c>
@@ -18072,7 +18089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>3053650</v>
       </c>
@@ -18125,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3061660</v>
       </c>
@@ -18178,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>3063660</v>
       </c>
@@ -18231,7 +18248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>3065652</v>
       </c>
@@ -18284,7 +18301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>3069660</v>
       </c>
@@ -18337,7 +18354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3073680</v>
       </c>
@@ -18390,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>3075653</v>
       </c>
@@ -18443,7 +18460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>3081660</v>
       </c>
@@ -18496,7 +18513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>3085650</v>
       </c>
@@ -18549,7 +18566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>3087661</v>
       </c>
@@ -18602,7 +18619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>3089650</v>
       </c>
@@ -18652,7 +18669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>3091650</v>
       </c>
@@ -18702,7 +18719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>3095670</v>
       </c>
@@ -18755,7 +18772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>3099680</v>
       </c>
@@ -18808,7 +18825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>3101650</v>
       </c>
@@ -18861,7 +18878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>3103670</v>
       </c>
@@ -18914,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>3105660</v>
       </c>
@@ -18967,7 +18984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>3109650</v>
       </c>
@@ -19020,7 +19037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>3111650</v>
       </c>
@@ -19073,7 +19090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>3113650</v>
       </c>
@@ -19126,7 +19143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>3117652</v>
       </c>
@@ -19179,7 +19196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>3119660</v>
       </c>
@@ -19232,7 +19249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>3123653</v>
       </c>
@@ -19285,7 +19302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>3125660</v>
       </c>
@@ -19338,7 +19355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>3127690</v>
       </c>
@@ -19391,7 +19408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>3129670</v>
       </c>
@@ -19444,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>3131650</v>
       </c>
@@ -19497,7 +19514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>3133652</v>
       </c>
@@ -19550,7 +19567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>3135660</v>
       </c>
@@ -19603,7 +19620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>3137650</v>
       </c>
@@ -19656,7 +19673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>3139650</v>
       </c>
@@ -19709,7 +19726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>3141652</v>
       </c>
@@ -19762,7 +19779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>3143650</v>
       </c>
@@ -19815,7 +19832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>3145650</v>
       </c>
@@ -19868,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>3149653</v>
       </c>
@@ -19921,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>3153670</v>
       </c>
@@ -19974,7 +19991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>3155690</v>
       </c>
@@ -20027,7 +20044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>3159650</v>
       </c>
@@ -20080,7 +20097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>3161650</v>
       </c>
@@ -20133,7 +20150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>3163690</v>
       </c>
@@ -20186,7 +20203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>3169650</v>
       </c>
@@ -20239,7 +20256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>3173650</v>
       </c>
@@ -20292,7 +20309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>3181650</v>
       </c>
@@ -20345,7 +20362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>3185650</v>
       </c>
@@ -20398,7 +20415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>3187680</v>
       </c>
@@ -20451,7 +20468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>3189650</v>
       </c>
@@ -20504,7 +20521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>3191650</v>
       </c>
@@ -20557,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>3197670</v>
       </c>
@@ -20610,7 +20627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>3203680</v>
       </c>
@@ -20663,7 +20680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>3209651</v>
       </c>
@@ -20716,7 +20733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>3211670</v>
       </c>
@@ -20769,7 +20786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>3215650</v>
       </c>
@@ -20822,7 +20839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>3217660</v>
       </c>
@@ -20875,7 +20892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3219650</v>
       </c>
@@ -20928,7 +20945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>3221650</v>
       </c>
@@ -20981,7 +20998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>3223650</v>
       </c>
@@ -21034,7 +21051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>3225690</v>
       </c>
@@ -21087,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>3229650</v>
       </c>
@@ -21140,7 +21157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>3231650</v>
       </c>
@@ -21193,7 +21210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>3239650</v>
       </c>
@@ -21246,7 +21263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>3241660</v>
       </c>
@@ -21299,7 +21316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>3243680</v>
       </c>
@@ -21352,7 +21369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>3245680</v>
       </c>
@@ -21405,7 +21422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>3247652</v>
       </c>
@@ -21458,7 +21475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>3249650</v>
       </c>
@@ -21511,7 +21528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>3251653</v>
       </c>
@@ -21564,7 +21581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>3257660</v>
       </c>
@@ -21617,7 +21634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>3263650</v>
       </c>
@@ -21670,7 +21687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>3267660</v>
       </c>
@@ -21723,7 +21740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>3271650</v>
       </c>
@@ -21776,7 +21793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>3273652</v>
       </c>
@@ -21829,7 +21846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>3277650</v>
       </c>
@@ -21882,7 +21899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>3279650</v>
       </c>
@@ -21935,7 +21952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>3281670</v>
       </c>
@@ -21988,7 +22005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>3283690</v>
       </c>
@@ -22041,7 +22058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>3289650</v>
       </c>
@@ -22094,7 +22111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>3291670</v>
       </c>
@@ -22147,7 +22164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>3293653</v>
       </c>
@@ -22200,7 +22217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>3297650</v>
       </c>
@@ -22253,7 +22270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>3301660</v>
       </c>
@@ -22306,7 +22323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>3311680</v>
       </c>
@@ -22359,7 +22376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>3313650</v>
       </c>
@@ -22412,7 +22429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>3315650</v>
       </c>
@@ -22465,7 +22482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>3317650</v>
       </c>
@@ -22518,7 +22535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>3319650</v>
       </c>
@@ -22571,7 +22588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>3321660</v>
       </c>
@@ -22621,7 +22638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>3323670</v>
       </c>
@@ -22674,7 +22691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>3327650</v>
       </c>
@@ -22727,7 +22744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>3335650</v>
       </c>
@@ -22780,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>3337650</v>
       </c>
@@ -22833,7 +22850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>3339680</v>
       </c>
@@ -22886,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>3341680</v>
       </c>
@@ -22939,7 +22956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>3343650</v>
       </c>
@@ -22992,7 +23009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>3345650</v>
       </c>
@@ -23045,7 +23062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3347653</v>
       </c>
@@ -23098,7 +23115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>3357650</v>
       </c>
@@ -23151,7 +23168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>3361650</v>
       </c>
@@ -23204,7 +23221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>3363660</v>
       </c>
@@ -23257,7 +23274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>3365650</v>
       </c>
@@ -23310,7 +23327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>3367653</v>
       </c>
@@ -23363,7 +23380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>3371650</v>
       </c>
@@ -23416,7 +23433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>3373660</v>
       </c>
@@ -23469,7 +23486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>3375670</v>
       </c>
@@ -23522,7 +23539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>3377650</v>
       </c>
@@ -23575,7 +23592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>3381650</v>
       </c>
@@ -23628,7 +23645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>3385670</v>
       </c>
@@ -23681,7 +23698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>3387660</v>
       </c>
@@ -23734,7 +23751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>3389690</v>
       </c>
@@ -23787,7 +23804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>3391652</v>
       </c>
@@ -23840,7 +23857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>3399653</v>
       </c>
@@ -23893,7 +23910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>3401650</v>
       </c>
@@ -23946,7 +23963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>3403653</v>
       </c>
@@ -23999,7 +24016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>3405653</v>
       </c>
@@ -24052,7 +24069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>3407653</v>
       </c>
@@ -24105,7 +24122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>3409650</v>
       </c>
@@ -24158,7 +24175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>3411650</v>
       </c>
@@ -24211,7 +24228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>3415660</v>
       </c>
@@ -24264,7 +24281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>3417653</v>
       </c>
@@ -24317,7 +24334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>3419660</v>
       </c>
@@ -24370,7 +24387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>3421653</v>
       </c>
@@ -24423,7 +24440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>3427670</v>
       </c>
@@ -24476,7 +24493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>3429653</v>
       </c>
@@ -24529,7 +24546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>3431650</v>
       </c>
@@ -24582,7 +24599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>3433650</v>
       </c>
@@ -24635,7 +24652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>3435690</v>
       </c>
@@ -24688,7 +24705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>3437650</v>
       </c>
@@ -24741,7 +24758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>3439680</v>
       </c>
@@ -24794,7 +24811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>3441650</v>
       </c>
@@ -24847,7 +24864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>3443650</v>
       </c>
@@ -24900,7 +24917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>3445670</v>
       </c>
@@ -24953,7 +24970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>3447650</v>
       </c>
@@ -25006,7 +25023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:17">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>3453650</v>
       </c>
@@ -25059,7 +25076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:17">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>3455650</v>
       </c>
@@ -25112,7 +25129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:17">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>3477660</v>
       </c>
@@ -25165,7 +25182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:17">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>3481660</v>
       </c>
@@ -25218,7 +25235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:17">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>3483651</v>
       </c>
@@ -25271,7 +25288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:17">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>3485680</v>
       </c>
@@ -25324,7 +25341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:17">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>3487650</v>
       </c>
@@ -25377,7 +25394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:17">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>3489670</v>
       </c>
@@ -25430,7 +25447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:17">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>3491650</v>
       </c>
@@ -25483,7 +25500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:17">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>3495650</v>
       </c>
@@ -25536,7 +25553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:17">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>3497650</v>
       </c>
@@ -25589,7 +25606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:17">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>3499660</v>
       </c>
@@ -25642,7 +25659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:17">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>3501650</v>
       </c>
@@ -25695,7 +25712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:17">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>3503650</v>
       </c>
@@ -25748,7 +25765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:17">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>3509661</v>
       </c>
@@ -25801,7 +25818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:17">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>3511650</v>
       </c>
@@ -25854,7 +25871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:17">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>3515660</v>
       </c>
@@ -25907,7 +25924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:17">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>3517653</v>
       </c>
@@ -25960,7 +25977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:17">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>3519670</v>
       </c>
@@ -26013,7 +26030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:17">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>3523650</v>
       </c>
@@ -26066,7 +26083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:17">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>3525650</v>
       </c>
@@ -26119,7 +26136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:17">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>3527670</v>
       </c>
@@ -26172,7 +26189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:17">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>3529653</v>
       </c>
@@ -26225,7 +26242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:17">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>3531650</v>
       </c>
@@ -26278,7 +26295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:17">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>3535650</v>
       </c>
@@ -26331,7 +26348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:17">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>3537650</v>
       </c>
@@ -26384,7 +26401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:17">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>3551650</v>
       </c>
@@ -26437,7 +26454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:17">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>3561650</v>
       </c>

--- a/baxter.metadata.xlsx
+++ b/baxter.metadata.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pschloss/Documents/websites/riffomonas/minimalR/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{30573063-5FB9-984F-A524-76AF2CA35976}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1980" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baxter.metadata.tsv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="33">
   <si>
     <t>sample</t>
   </si>
@@ -113,11 +119,17 @@
   <si>
     <t>MD Anderson</t>
   </si>
+  <si>
+    <t>U of Michigan</t>
+  </si>
+  <si>
+    <t>Cancer.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -179,6 +191,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -503,16 +523,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2003650</v>
       </c>
@@ -615,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2005650</v>
       </c>
@@ -668,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2007660</v>
       </c>
@@ -721,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2009650</v>
       </c>
@@ -774,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2013660</v>
       </c>
@@ -827,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015650</v>
       </c>
@@ -880,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2017660</v>
       </c>
@@ -933,7 +953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2019651</v>
       </c>
@@ -986,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2023680</v>
       </c>
@@ -1039,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2025653</v>
       </c>
@@ -1050,7 +1070,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -1092,7 +1112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2027653</v>
       </c>
@@ -1145,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2029650</v>
       </c>
@@ -1198,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2031650</v>
       </c>
@@ -1251,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2033650</v>
       </c>
@@ -1304,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2035650</v>
       </c>
@@ -1357,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2037653</v>
       </c>
@@ -1410,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2039650</v>
       </c>
@@ -1463,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2041650</v>
       </c>
@@ -1516,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2043650</v>
       </c>
@@ -1569,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2045653</v>
       </c>
@@ -1622,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2049653</v>
       </c>
@@ -1675,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2051660</v>
       </c>
@@ -1728,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2055690</v>
       </c>
@@ -1781,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2057650</v>
       </c>
@@ -1789,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1834,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2059653</v>
       </c>
@@ -1884,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2061650</v>
       </c>
@@ -1937,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2063650</v>
       </c>
@@ -1990,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2065651</v>
       </c>
@@ -2043,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2067650</v>
       </c>
@@ -2096,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2071650</v>
       </c>
@@ -2149,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2073650</v>
       </c>
@@ -2202,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2075650</v>
       </c>
@@ -2255,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2077653</v>
       </c>
@@ -2308,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2081660</v>
       </c>
@@ -2361,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2083650</v>
       </c>
@@ -2414,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2085653</v>
       </c>
@@ -2467,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2087650</v>
       </c>
@@ -2520,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2093650</v>
       </c>
@@ -2573,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2097653</v>
       </c>
@@ -2626,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2103650</v>
       </c>
@@ -2679,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2105652</v>
       </c>
@@ -2732,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2107650</v>
       </c>
@@ -2785,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2109653</v>
       </c>
@@ -2838,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2113670</v>
       </c>
@@ -2891,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2115650</v>
       </c>
@@ -2944,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2117651</v>
       </c>
@@ -2997,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2119650</v>
       </c>
@@ -3050,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2123652</v>
       </c>
@@ -3103,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2125650</v>
       </c>
@@ -3156,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2127650</v>
       </c>
@@ -3209,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2129660</v>
       </c>
@@ -3262,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2131650</v>
       </c>
@@ -3315,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2133650</v>
       </c>
@@ -3368,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2137650</v>
       </c>
@@ -3421,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2139650</v>
       </c>
@@ -3474,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2143653</v>
       </c>
@@ -3527,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2145660</v>
       </c>
@@ -3580,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2147680</v>
       </c>
@@ -3633,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2149650</v>
       </c>
@@ -3686,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2151650</v>
       </c>
@@ -3739,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2153660</v>
       </c>
@@ -3792,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2155650</v>
       </c>
@@ -3845,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2157660</v>
       </c>
@@ -3898,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2159650</v>
       </c>
@@ -3948,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2161653</v>
       </c>
@@ -4001,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2163653</v>
       </c>
@@ -4054,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2165652</v>
       </c>
@@ -4107,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2167670</v>
       </c>
@@ -4160,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2169653</v>
       </c>
@@ -4213,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2171690</v>
       </c>
@@ -4266,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2173650</v>
       </c>
@@ -4319,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2177653</v>
       </c>
@@ -4372,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2179650</v>
       </c>
@@ -4425,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2181650</v>
       </c>
@@ -4478,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2183650</v>
       </c>
@@ -4531,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2185670</v>
       </c>
@@ -4584,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2187680</v>
       </c>
@@ -4637,7 +4657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2189650</v>
       </c>
@@ -4690,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2193650</v>
       </c>
@@ -4743,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2195651</v>
       </c>
@@ -4796,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2197670</v>
       </c>
@@ -4849,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2199650</v>
       </c>
@@ -4902,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2201650</v>
       </c>
@@ -4955,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2203653</v>
       </c>
@@ -5008,7 +5028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2205670</v>
       </c>
@@ -5061,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2207653</v>
       </c>
@@ -5114,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2215650</v>
       </c>
@@ -5167,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2219650</v>
       </c>
@@ -5220,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2221650</v>
       </c>
@@ -5273,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2223650</v>
       </c>
@@ -5326,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2225650</v>
       </c>
@@ -5379,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2227660</v>
       </c>
@@ -5432,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2229653</v>
       </c>
@@ -5485,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2231653</v>
       </c>
@@ -5538,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2239650</v>
       </c>
@@ -5591,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2241650</v>
       </c>
@@ -5644,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2243651</v>
       </c>
@@ -5697,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2253660</v>
       </c>
@@ -5750,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2255653</v>
       </c>
@@ -5803,7 +5823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2257660</v>
       </c>
@@ -5856,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2261650</v>
       </c>
@@ -5909,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2265651</v>
       </c>
@@ -5962,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2267653</v>
       </c>
@@ -6015,7 +6035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2271650</v>
       </c>
@@ -6068,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2277650</v>
       </c>
@@ -6121,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2279650</v>
       </c>
@@ -6174,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2281651</v>
       </c>
@@ -6227,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2283670</v>
       </c>
@@ -6280,7 +6300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2285653</v>
       </c>
@@ -6333,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2287660</v>
       </c>
@@ -6386,7 +6406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2289650</v>
       </c>
@@ -6439,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2291653</v>
       </c>
@@ -6492,7 +6512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2293650</v>
       </c>
@@ -6545,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2295650</v>
       </c>
@@ -6598,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2297650</v>
       </c>
@@ -6651,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2301650</v>
       </c>
@@ -6704,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2305651</v>
       </c>
@@ -6757,7 +6777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2307650</v>
       </c>
@@ -6810,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2309650</v>
       </c>
@@ -6863,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2313680</v>
       </c>
@@ -6916,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2315650</v>
       </c>
@@ -6969,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2321650</v>
       </c>
@@ -7022,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2325660</v>
       </c>
@@ -7075,7 +7095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2327650</v>
       </c>
@@ -7128,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2329650</v>
       </c>
@@ -7181,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2335650</v>
       </c>
@@ -7234,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2337650</v>
       </c>
@@ -7287,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2339651</v>
       </c>
@@ -7340,7 +7360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2341650</v>
       </c>
@@ -7393,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2343650</v>
       </c>
@@ -7446,7 +7466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2349653</v>
       </c>
@@ -7499,7 +7519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2353670</v>
       </c>
@@ -7552,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2355653</v>
       </c>
@@ -7605,7 +7625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2359650</v>
       </c>
@@ -7658,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2365651</v>
       </c>
@@ -7711,7 +7731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2367650</v>
       </c>
@@ -7761,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2373690</v>
       </c>
@@ -7814,7 +7834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2375650</v>
       </c>
@@ -7867,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2379653</v>
       </c>
@@ -7920,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2389650</v>
       </c>
@@ -7973,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2393650</v>
       </c>
@@ -8026,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2395670</v>
       </c>
@@ -8079,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2399670</v>
       </c>
@@ -8132,7 +8152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2405680</v>
       </c>
@@ -8185,7 +8205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2409670</v>
       </c>
@@ -8238,7 +8258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2411660</v>
       </c>
@@ -8291,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2413660</v>
       </c>
@@ -8344,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2419660</v>
       </c>
@@ -8397,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2421651</v>
       </c>
@@ -8450,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2427660</v>
       </c>
@@ -8503,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2431660</v>
       </c>
@@ -8556,7 +8576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2433650</v>
       </c>
@@ -8609,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2435680</v>
       </c>
@@ -8662,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2437680</v>
       </c>
@@ -8715,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2447651</v>
       </c>
@@ -8768,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2449650</v>
       </c>
@@ -8821,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2453653</v>
       </c>
@@ -8874,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2455650</v>
       </c>
@@ -8927,7 +8947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2457670</v>
       </c>
@@ -8980,7 +9000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2461651</v>
       </c>
@@ -9033,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2463651</v>
       </c>
@@ -9086,7 +9106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2465680</v>
       </c>
@@ -9139,7 +9159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2471651</v>
       </c>
@@ -9192,7 +9212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2473660</v>
       </c>
@@ -9245,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2475653</v>
       </c>
@@ -9298,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2487651</v>
       </c>
@@ -9351,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2491670</v>
       </c>
@@ -9404,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2493651</v>
       </c>
@@ -9457,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2495653</v>
       </c>
@@ -9510,7 +9530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2499660</v>
       </c>
@@ -9563,7 +9583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2503650</v>
       </c>
@@ -9616,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2505651</v>
       </c>
@@ -9669,7 +9689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2507651</v>
       </c>
@@ -9722,7 +9742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2511650</v>
       </c>
@@ -9775,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2513680</v>
       </c>
@@ -9828,7 +9848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2517650</v>
       </c>
@@ -9881,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2519650</v>
       </c>
@@ -9934,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2523653</v>
       </c>
@@ -9987,7 +10007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2525651</v>
       </c>
@@ -10040,7 +10060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2527670</v>
       </c>
@@ -10093,7 +10113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2529680</v>
       </c>
@@ -10146,7 +10166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2531651</v>
       </c>
@@ -10199,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2535652</v>
       </c>
@@ -10252,7 +10272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2537670</v>
       </c>
@@ -10305,7 +10325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2539660</v>
       </c>
@@ -10358,7 +10378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2541670</v>
       </c>
@@ -10411,7 +10431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2543653</v>
       </c>
@@ -10464,7 +10484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2545651</v>
       </c>
@@ -10517,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2547670</v>
       </c>
@@ -10570,7 +10590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2551650</v>
       </c>
@@ -10623,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2555653</v>
       </c>
@@ -10676,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2559650</v>
       </c>
@@ -10729,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2565650</v>
       </c>
@@ -10782,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2567653</v>
       </c>
@@ -10835,7 +10855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2571650</v>
       </c>
@@ -10888,7 +10908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2575653</v>
       </c>
@@ -10941,7 +10961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2579680</v>
       </c>
@@ -10994,7 +11014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2581651</v>
       </c>
@@ -11047,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2583650</v>
       </c>
@@ -11100,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2587650</v>
       </c>
@@ -11153,7 +11173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2589650</v>
       </c>
@@ -11206,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2597670</v>
       </c>
@@ -11259,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2599650</v>
       </c>
@@ -11312,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2603650</v>
       </c>
@@ -11365,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2611670</v>
       </c>
@@ -11409,7 +11429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2613650</v>
       </c>
@@ -11462,7 +11482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2617653</v>
       </c>
@@ -11515,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2619653</v>
       </c>
@@ -11568,7 +11588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2625653</v>
       </c>
@@ -11621,7 +11641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2629651</v>
       </c>
@@ -11674,7 +11694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2633670</v>
       </c>
@@ -11727,7 +11747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2637651</v>
       </c>
@@ -11780,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2639690</v>
       </c>
@@ -11833,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2641650</v>
       </c>
@@ -11886,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2643651</v>
       </c>
@@ -11939,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2647650</v>
       </c>
@@ -11992,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2657651</v>
       </c>
@@ -12045,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2665650</v>
       </c>
@@ -12098,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2667653</v>
       </c>
@@ -12151,7 +12171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2669660</v>
       </c>
@@ -12204,7 +12224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2671660</v>
       </c>
@@ -12257,7 +12277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2675680</v>
       </c>
@@ -12310,7 +12330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2677650</v>
       </c>
@@ -12363,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2679660</v>
       </c>
@@ -12416,7 +12436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2681650</v>
       </c>
@@ -12469,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2695652</v>
       </c>
@@ -12522,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2703653</v>
       </c>
@@ -12575,7 +12595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2705653</v>
       </c>
@@ -12628,7 +12648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2709650</v>
       </c>
@@ -12681,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2713651</v>
       </c>
@@ -12734,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2717652</v>
       </c>
@@ -12784,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2719650</v>
       </c>
@@ -12837,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2725650</v>
       </c>
@@ -12884,7 +12904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2727653</v>
       </c>
@@ -12937,7 +12957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2731670</v>
       </c>
@@ -12990,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2733650</v>
       </c>
@@ -13043,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2739651</v>
       </c>
@@ -13096,7 +13116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2743650</v>
       </c>
@@ -13149,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2751650</v>
       </c>
@@ -13202,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2757652</v>
       </c>
@@ -13255,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2767650</v>
       </c>
@@ -13308,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2769660</v>
       </c>
@@ -13361,7 +13381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2771670</v>
       </c>
@@ -13414,7 +13434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2773651</v>
       </c>
@@ -13467,7 +13487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2775653</v>
       </c>
@@ -13520,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2777670</v>
       </c>
@@ -13573,7 +13593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2779670</v>
       </c>
@@ -13626,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2785650</v>
       </c>
@@ -13679,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2787660</v>
       </c>
@@ -13732,7 +13752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2795690</v>
       </c>
@@ -13785,7 +13805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2799653</v>
       </c>
@@ -13838,7 +13858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2801653</v>
       </c>
@@ -13891,7 +13911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2803670</v>
       </c>
@@ -13944,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2805660</v>
       </c>
@@ -13997,7 +14017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2807650</v>
       </c>
@@ -14050,7 +14070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2811650</v>
       </c>
@@ -14103,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2815650</v>
       </c>
@@ -14156,7 +14176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2817670</v>
       </c>
@@ -14209,7 +14229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2823650</v>
       </c>
@@ -14262,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2827650</v>
       </c>
@@ -14315,7 +14335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2829660</v>
       </c>
@@ -14368,7 +14388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2831680</v>
       </c>
@@ -14421,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2835650</v>
       </c>
@@ -14474,7 +14494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2837680</v>
       </c>
@@ -14527,7 +14547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2841680</v>
       </c>
@@ -14577,7 +14597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2843670</v>
       </c>
@@ -14630,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2849650</v>
       </c>
@@ -14683,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2853660</v>
       </c>
@@ -14736,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2855690</v>
       </c>
@@ -14786,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2857650</v>
       </c>
@@ -14839,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2859650</v>
       </c>
@@ -14892,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2861650</v>
       </c>
@@ -14945,7 +14965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2863680</v>
       </c>
@@ -14998,7 +15018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2871650</v>
       </c>
@@ -15051,7 +15071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2873653</v>
       </c>
@@ -15104,7 +15124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2879660</v>
       </c>
@@ -15157,7 +15177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2883650</v>
       </c>
@@ -15210,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2887670</v>
       </c>
@@ -15263,7 +15283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2889660</v>
       </c>
@@ -15316,7 +15336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2893660</v>
       </c>
@@ -15369,7 +15389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2895650</v>
       </c>
@@ -15422,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2901651</v>
       </c>
@@ -15475,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2903653</v>
       </c>
@@ -15528,7 +15548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2905650</v>
       </c>
@@ -15581,7 +15601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2907653</v>
       </c>
@@ -15634,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2909653</v>
       </c>
@@ -15687,7 +15707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2911680</v>
       </c>
@@ -15740,7 +15760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2913650</v>
       </c>
@@ -15793,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2915650</v>
       </c>
@@ -15846,7 +15866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2917650</v>
       </c>
@@ -15899,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2921652</v>
       </c>
@@ -15952,7 +15972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2923650</v>
       </c>
@@ -16005,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2929650</v>
       </c>
@@ -16058,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2931650</v>
       </c>
@@ -16111,7 +16131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2933652</v>
       </c>
@@ -16164,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2935650</v>
       </c>
@@ -16217,7 +16237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2937653</v>
       </c>
@@ -16270,7 +16290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2939650</v>
       </c>
@@ -16323,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2943650</v>
       </c>
@@ -16376,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2945660</v>
       </c>
@@ -16429,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2955670</v>
       </c>
@@ -16482,7 +16502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2957680</v>
       </c>
@@ -16535,7 +16555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2959660</v>
       </c>
@@ -16588,7 +16608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2961650</v>
       </c>
@@ -16641,7 +16661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2963670</v>
       </c>
@@ -16694,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2965650</v>
       </c>
@@ -16747,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2967680</v>
       </c>
@@ -16800,7 +16820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2969650</v>
       </c>
@@ -16853,7 +16873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2971660</v>
       </c>
@@ -16906,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2981651</v>
       </c>
@@ -16959,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2987670</v>
       </c>
@@ -17012,7 +17032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2991650</v>
       </c>
@@ -17065,7 +17085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2993690</v>
       </c>
@@ -17118,7 +17138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2995660</v>
       </c>
@@ -17171,7 +17191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2997651</v>
       </c>
@@ -17224,7 +17244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2999650</v>
       </c>
@@ -17277,7 +17297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>3001670</v>
       </c>
@@ -17330,7 +17350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>3005653</v>
       </c>
@@ -17383,7 +17403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>3009670</v>
       </c>
@@ -17436,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>3011651</v>
       </c>
@@ -17489,7 +17509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>3013653</v>
       </c>
@@ -17542,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>3015650</v>
       </c>
@@ -17595,7 +17615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>3021690</v>
       </c>
@@ -17648,7 +17668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>3023652</v>
       </c>
@@ -17701,7 +17721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3025650</v>
       </c>
@@ -17754,7 +17774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>3031650</v>
       </c>
@@ -17807,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>3033660</v>
       </c>
@@ -17860,7 +17880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>3043652</v>
       </c>
@@ -17913,7 +17933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>3047652</v>
       </c>
@@ -17966,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>3049660</v>
       </c>
@@ -18019,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>3051650</v>
       </c>
@@ -18072,7 +18092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>3053650</v>
       </c>
@@ -18125,7 +18145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3061660</v>
       </c>
@@ -18178,7 +18198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>3063660</v>
       </c>
@@ -18231,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>3065652</v>
       </c>
@@ -18284,7 +18304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>3069660</v>
       </c>
@@ -18337,7 +18357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3073680</v>
       </c>
@@ -18390,7 +18410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>3075653</v>
       </c>
@@ -18443,7 +18463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>3081660</v>
       </c>
@@ -18496,7 +18516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>3085650</v>
       </c>
@@ -18549,7 +18569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>3087661</v>
       </c>
@@ -18602,7 +18622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>3089650</v>
       </c>
@@ -18652,7 +18672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>3091650</v>
       </c>
@@ -18702,7 +18722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>3095670</v>
       </c>
@@ -18755,7 +18775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>3099680</v>
       </c>
@@ -18808,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>3101650</v>
       </c>
@@ -18861,7 +18881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>3103670</v>
       </c>
@@ -18914,7 +18934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>3105660</v>
       </c>
@@ -18967,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>3109650</v>
       </c>
@@ -19020,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>3111650</v>
       </c>
@@ -19073,7 +19093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>3113650</v>
       </c>
@@ -19126,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>3117652</v>
       </c>
@@ -19179,7 +19199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>3119660</v>
       </c>
@@ -19232,7 +19252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>3123653</v>
       </c>
@@ -19285,7 +19305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>3125660</v>
       </c>
@@ -19338,7 +19358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>3127690</v>
       </c>
@@ -19391,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>3129670</v>
       </c>
@@ -19444,7 +19464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>3131650</v>
       </c>
@@ -19497,7 +19517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>3133652</v>
       </c>
@@ -19550,7 +19570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>3135660</v>
       </c>
@@ -19603,7 +19623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>3137650</v>
       </c>
@@ -19656,7 +19676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>3139650</v>
       </c>
@@ -19709,7 +19729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>3141652</v>
       </c>
@@ -19762,7 +19782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>3143650</v>
       </c>
@@ -19815,7 +19835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>3145650</v>
       </c>
@@ -19868,7 +19888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>3149653</v>
       </c>
@@ -19921,7 +19941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>3153670</v>
       </c>
@@ -19974,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>3155690</v>
       </c>
@@ -20027,7 +20047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>3159650</v>
       </c>
@@ -20080,7 +20100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>3161650</v>
       </c>
@@ -20133,7 +20153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>3163690</v>
       </c>
@@ -20186,7 +20206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>3169650</v>
       </c>
@@ -20239,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>3173650</v>
       </c>
@@ -20292,7 +20312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>3181650</v>
       </c>
@@ -20345,7 +20365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>3185650</v>
       </c>
@@ -20398,7 +20418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>3187680</v>
       </c>
@@ -20451,7 +20471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>3189650</v>
       </c>
@@ -20504,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>3191650</v>
       </c>
@@ -20557,7 +20577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>3197670</v>
       </c>
@@ -20610,7 +20630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>3203680</v>
       </c>
@@ -20663,7 +20683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>3209651</v>
       </c>
@@ -20716,7 +20736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>3211670</v>
       </c>
@@ -20769,7 +20789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>3215650</v>
       </c>
@@ -20822,7 +20842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>3217660</v>
       </c>
@@ -20875,7 +20895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3219650</v>
       </c>
@@ -20928,7 +20948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>3221650</v>
       </c>
@@ -20981,7 +21001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>3223650</v>
       </c>
@@ -21034,7 +21054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>3225690</v>
       </c>
@@ -21087,7 +21107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>3229650</v>
       </c>
@@ -21140,7 +21160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>3231650</v>
       </c>
@@ -21193,7 +21213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>3239650</v>
       </c>
@@ -21246,7 +21266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>3241660</v>
       </c>
@@ -21299,7 +21319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>3243680</v>
       </c>
@@ -21352,7 +21372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>3245680</v>
       </c>
@@ -21405,7 +21425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>3247652</v>
       </c>
@@ -21458,7 +21478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>3249650</v>
       </c>
@@ -21511,7 +21531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>3251653</v>
       </c>
@@ -21564,7 +21584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>3257660</v>
       </c>
@@ -21617,7 +21637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>3263650</v>
       </c>
@@ -21670,7 +21690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>3267660</v>
       </c>
@@ -21723,7 +21743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>3271650</v>
       </c>
@@ -21776,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>3273652</v>
       </c>
@@ -21829,7 +21849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>3277650</v>
       </c>
@@ -21882,7 +21902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>3279650</v>
       </c>
@@ -21935,7 +21955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>3281670</v>
       </c>
@@ -21988,7 +22008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>3283690</v>
       </c>
@@ -22041,7 +22061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>3289650</v>
       </c>
@@ -22094,7 +22114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>3291670</v>
       </c>
@@ -22147,7 +22167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>3293653</v>
       </c>
@@ -22200,7 +22220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>3297650</v>
       </c>
@@ -22253,7 +22273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>3301660</v>
       </c>
@@ -22306,7 +22326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>3311680</v>
       </c>
@@ -22359,7 +22379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>3313650</v>
       </c>
@@ -22412,7 +22432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>3315650</v>
       </c>
@@ -22465,7 +22485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>3317650</v>
       </c>
@@ -22518,7 +22538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>3319650</v>
       </c>
@@ -22571,7 +22591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>3321660</v>
       </c>
@@ -22621,7 +22641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>3323670</v>
       </c>
@@ -22674,7 +22694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>3327650</v>
       </c>
@@ -22727,7 +22747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>3335650</v>
       </c>
@@ -22780,7 +22800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>3337650</v>
       </c>
@@ -22833,7 +22853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>3339680</v>
       </c>
@@ -22886,7 +22906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>3341680</v>
       </c>
@@ -22939,7 +22959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>3343650</v>
       </c>
@@ -22992,7 +23012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>3345650</v>
       </c>
@@ -23045,7 +23065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3347653</v>
       </c>
@@ -23098,7 +23118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>3357650</v>
       </c>
@@ -23151,7 +23171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>3361650</v>
       </c>
@@ -23204,7 +23224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>3363660</v>
       </c>
@@ -23257,7 +23277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>3365650</v>
       </c>
@@ -23310,7 +23330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>3367653</v>
       </c>
@@ -23363,7 +23383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>3371650</v>
       </c>
@@ -23416,7 +23436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>3373660</v>
       </c>
@@ -23469,7 +23489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>3375670</v>
       </c>
@@ -23522,7 +23542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>3377650</v>
       </c>
@@ -23575,7 +23595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>3381650</v>
       </c>
@@ -23628,7 +23648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>3385670</v>
       </c>
@@ -23681,7 +23701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>3387660</v>
       </c>
@@ -23734,7 +23754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>3389690</v>
       </c>
@@ -23787,7 +23807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>3391652</v>
       </c>
@@ -23840,7 +23860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>3399653</v>
       </c>
@@ -23893,7 +23913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>3401650</v>
       </c>
@@ -23946,7 +23966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>3403653</v>
       </c>
@@ -23999,7 +24019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>3405653</v>
       </c>
@@ -24052,7 +24072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>3407653</v>
       </c>
@@ -24105,7 +24125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>3409650</v>
       </c>
@@ -24158,7 +24178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>3411650</v>
       </c>
@@ -24211,7 +24231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>3415660</v>
       </c>
@@ -24264,7 +24284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>3417653</v>
       </c>
@@ -24317,7 +24337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>3419660</v>
       </c>
@@ -24370,7 +24390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>3421653</v>
       </c>
@@ -24423,7 +24443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>3427670</v>
       </c>
@@ -24476,7 +24496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>3429653</v>
       </c>
@@ -24529,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>3431650</v>
       </c>
@@ -24582,7 +24602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>3433650</v>
       </c>
@@ -24635,7 +24655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>3435690</v>
       </c>
@@ -24688,7 +24708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>3437650</v>
       </c>
@@ -24741,7 +24761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>3439680</v>
       </c>
@@ -24794,7 +24814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>3441650</v>
       </c>
@@ -24847,7 +24867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>3443650</v>
       </c>
@@ -24900,7 +24920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>3445670</v>
       </c>
@@ -24953,7 +24973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>3447650</v>
       </c>
@@ -25006,7 +25026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:17">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>3453650</v>
       </c>
@@ -25059,7 +25079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:17">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>3455650</v>
       </c>
@@ -25112,7 +25132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:17">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>3477660</v>
       </c>
@@ -25165,7 +25185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:17">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>3481660</v>
       </c>
@@ -25218,7 +25238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:17">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>3483651</v>
       </c>
@@ -25271,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:17">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>3485680</v>
       </c>
@@ -25324,7 +25344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:17">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>3487650</v>
       </c>
@@ -25377,7 +25397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:17">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>3489670</v>
       </c>
@@ -25430,7 +25450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:17">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>3491650</v>
       </c>
@@ -25483,7 +25503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:17">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>3495650</v>
       </c>
@@ -25536,7 +25556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:17">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>3497650</v>
       </c>
@@ -25589,7 +25609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:17">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>3499660</v>
       </c>
@@ -25642,7 +25662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:17">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>3501650</v>
       </c>
@@ -25695,7 +25715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:17">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>3503650</v>
       </c>
@@ -25748,7 +25768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:17">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>3509661</v>
       </c>
@@ -25801,7 +25821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:17">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>3511650</v>
       </c>
@@ -25854,7 +25874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:17">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>3515660</v>
       </c>
@@ -25907,7 +25927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:17">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>3517653</v>
       </c>
@@ -25960,7 +25980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:17">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>3519670</v>
       </c>
@@ -26013,7 +26033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:17">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>3523650</v>
       </c>
@@ -26066,7 +26086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:17">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>3525650</v>
       </c>
@@ -26119,7 +26139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:17">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>3527670</v>
       </c>
@@ -26172,7 +26192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:17">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>3529653</v>
       </c>
@@ -26225,7 +26245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:17">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>3531650</v>
       </c>
@@ -26278,7 +26298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:17">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>3535650</v>
       </c>
@@ -26331,7 +26351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:17">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>3537650</v>
       </c>
@@ -26384,7 +26404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:17">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>3551650</v>
       </c>
@@ -26437,7 +26457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:17">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>3561650</v>
       </c>
